--- a/biology/Microbiologie/Stérilisation_à_la_vapeur/Stérilisation_à_la_vapeur.xlsx
+++ b/biology/Microbiologie/Stérilisation_à_la_vapeur/Stérilisation_à_la_vapeur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9rilisation_%C3%A0_la_vapeur</t>
+          <t>Stérilisation_à_la_vapeur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La stérilisation à la vapeur a pour objectif d'éliminer tous les germes ou les contaminants, par contact de l'objet avec une température de 134°C plus une surpression de 2,2 bar pendant 18 min et cela sur la totalité de la surface à stériliser (valeur issue de la table de Regnault).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9rilisation_%C3%A0_la_vapeur</t>
+          <t>Stérilisation_à_la_vapeur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La destruction des micro-organismes est obtenue par l’action conjuguée de la chaleur et de l’humidité, la vapeur permettant la pénétration de la chaleur à l’intérieur de la spore pour atteindre les acides nucléiques. L’efficacité maximale n’est donc obtenue qu’avec de la vapeur saturée. Le temps prévu pour la stérilisation débute lorsque la température souhaitée est atteinte.
 Dans un procédé de stérilisation, l’état de mort ou de réduction micro-biologique est décrit par une fonction exponentielle. La valeur stérilisatrice (communément appelée F0) correspond à la valeur exponentielle réduite lors de la stérilisation.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9rilisation_%C3%A0_la_vapeur</t>
+          <t>Stérilisation_à_la_vapeur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Préparation et démarche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque les objets à stériliser sont contenus dans des boites (comme par exemple, des instruments de chirurgie), la stérilisation ne doit pas se faire avec la boite métallique à instruments couvercle fermé, car le contenu de la boite ne sera pas stérile. Il faut par exemple utiliser deux sachets de stérilisation prévu pour être perméable à la vapeur. Chaque sachet comprend un morceau de la boite, positionné comme suit : la partie métallique posée côté plastique et la partie en contact avec les instruments face au côté papier opaque, prévu pour le transfert de la vapeur. La boite pourra être réassemblée (base avec son couvercle) ultérieurement dans un endroit stérile (hotte à flux laminaire ou salle blanche).
 Pour stériliser des flacons vides, deux solutions se présentent : 
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>St%C3%A9rilisation_%C3%A0_la_vapeur</t>
+          <t>Stérilisation_à_la_vapeur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Appareil ou montage stérilisable en ligne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur ces appareils la démarche est similaire, en détaillant le circuit de passage des fluides et vérifiant lors de la stérilisation préalable si la vapeur a bien été en contact avec tous les points du circuit. On appelle ceci une validation. Il est donc indispensable d'être vigilant lors de l'établissement de celle-ci, car la stérilisation sur des temps très long ou des températures très fortes abime le matériel et/ou les produits, sans garantit de résultat.
 </t>
